--- a/simple_with_OPF/Investment.xlsx
+++ b/simple_with_OPF/Investment.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\simple_with_OPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D141B9A4-3BC3-4D3D-AD24-FFFC2792081E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB7AF18-5695-4F6C-AD4E-0D58CEA63F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25200" yWindow="-3660" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Old values" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Conventional</t>
   </si>
@@ -378,18 +379,18 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -403,7 +404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -418,7 +419,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -433,7 +434,7 @@
         <v>828.88</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -448,8 +449,82 @@
         <v>2974.4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J8" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C012D0D-2A4A-489F-B4F6-AF8B0163DEF4}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>D2*1000</f>
+        <v>2184000</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>D3*1000</f>
+        <v>828880</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>828.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>D4*1000</f>
+        <v>2974400</v>
+      </c>
+      <c r="C4">
+        <v>150</v>
+      </c>
+      <c r="D4">
+        <v>2974.4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
